--- a/biology/Botanique/Spirée/Spirée.xlsx
+++ b/biology/Botanique/Spirée/Spirée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Spir%C3%A9e</t>
+          <t>Spirée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Spiraea
 Spiraea (Les spirées ) est un genre de plantes à fleurs de la famille des Rosacées. Ce sont des arbrisseaux dont la taille varie de 0,5 m à 2 m suivant les espèces.
-Il existe plus d'une centaine d'espèces à floraison blanche ou de diverses teintes de rose, floraison de printemps ou floraison d'été[1].
+Il existe plus d'une centaine d'espèces à floraison blanche ou de diverses teintes de rose, floraison de printemps ou floraison d'été.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Spir%C3%A9e</t>
+          <t>Spirée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -521,7 +535,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Spir%C3%A9e</t>
+          <t>Spirée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,7 +553,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Spiraea alba Du Roi - Spirée blanche
@@ -596,7 +612,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Spir%C3%A9e</t>
+          <t>Spirée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -614,7 +630,9 @@
           <t>Hybrides les plus connus</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Spiraea ×arguta (S. ×multiflora × S. thunbergii), Spirée hybride à feuilles aiguës
 Spiraea ×billardii Herincq (S. douglasii × S. alba)
